--- a/docs/23_fb750.xlsx
+++ b/docs/23_fb750.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Projekty/bakalářská-práce/BP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F48CD77-06C1-A445-90CA-846DB1100359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE4C72-1ACB-704E-AA75-A23145BDC79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="21460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <definedName name="_xlchart.v1.0" hidden="1">data!$D$2:$D$23</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">data!$D$2:$D$23</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">data!$D$2:$D$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">data!$D$2:$D$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">data!$D$2:$D$23</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">data!$D$2:$D$23</definedName>
     <definedName name="hodnota">data!$E$28</definedName>
     <definedName name="pole">data!$E$30</definedName>
   </definedNames>
@@ -783,6 +786,7 @@
                 <a:endParaRPr lang="cs-CZ"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -892,6 +896,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1712,16 +1717,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>46565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2051,7 +2056,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
